--- a/raw_data/20200818_saline/20200818_Sensor1_Test_86.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_86.xlsx
@@ -1,703 +1,1119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A3850-2616-4424-8C73-AF66CA489919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>76688.426390</v>
+        <v>76688.426389999993</v>
       </c>
       <c r="B2" s="1">
-        <v>21.302341</v>
+        <v>21.302340999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>902.615000</v>
+        <v>902.61500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.534000</v>
+        <v>-198.53399999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>76699.156839</v>
+        <v>76699.156839000003</v>
       </c>
       <c r="G2" s="1">
-        <v>21.305321</v>
+        <v>21.305320999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>920.638000</v>
+        <v>920.63800000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.750000</v>
+        <v>-168.75</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>76709.565882</v>
+        <v>76709.565881999995</v>
       </c>
       <c r="L2" s="1">
-        <v>21.308213</v>
+        <v>21.308212999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>944.986000</v>
+        <v>944.98599999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.559000</v>
+        <v>-120.559</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>76719.745772</v>
+        <v>76719.745771999995</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.311040</v>
+        <v>21.311039999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>952.071000</v>
+        <v>952.07100000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.486000</v>
+        <v>-104.486</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>76730.296670</v>
+        <v>76730.296669999996</v>
       </c>
       <c r="V2" s="1">
-        <v>21.313971</v>
+        <v>21.313970999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>959.178000</v>
+        <v>959.178</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.323400</v>
+        <v>-89.323400000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>76740.748401</v>
+        <v>76740.748401000004</v>
       </c>
       <c r="AA2" s="1">
         <v>21.316875</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.648000</v>
+        <v>966.64800000000002</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.603800</v>
+        <v>-77.603800000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>76751.656386</v>
+        <v>76751.656386000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.319905</v>
+        <v>21.319904999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.637000</v>
+        <v>971.63699999999994</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.303700</v>
+        <v>-75.303700000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>76761.505943</v>
+        <v>76761.505942999996</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.322641</v>
+        <v>21.322641000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.017000</v>
+        <v>979.01700000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.707200</v>
+        <v>-79.7072</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>76771.767177</v>
+        <v>76771.767177000002</v>
       </c>
       <c r="AP2" s="1">
         <v>21.325491</v>
       </c>
       <c r="AQ2" s="1">
-        <v>987.211000</v>
+        <v>987.21100000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.995100</v>
+        <v>-90.995099999999994</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>76782.421252</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.328450</v>
+        <v>21.32845</v>
       </c>
       <c r="AV2" s="1">
-        <v>997.159000</v>
+        <v>997.15899999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.297000</v>
+        <v>-108.297</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>76793.236012</v>
+        <v>76793.236011999994</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.331454</v>
+        <v>21.331454000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.490000</v>
+        <v>1005.49</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.691000</v>
+        <v>-123.691</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>76804.235788</v>
+        <v>76804.235788000005</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.334510</v>
+        <v>21.334510000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1044.330000</v>
+        <v>1044.33</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.319000</v>
+        <v>-194.31899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>76814.813471</v>
+        <v>76814.813471000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.337448</v>
+        <v>21.337447999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1111.030000</v>
+        <v>1111.03</v>
       </c>
       <c r="BL2" s="1">
-        <v>-308.396000</v>
+        <v>-308.39600000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>76826.313215</v>
+        <v>76826.313215000002</v>
       </c>
       <c r="BO2" s="1">
         <v>21.340643</v>
       </c>
       <c r="BP2" s="1">
-        <v>1218.740000</v>
+        <v>1218.74</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-487.256000</v>
+        <v>-487.25599999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>76836.779826</v>
+        <v>76836.779825999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.343550</v>
+        <v>21.34355</v>
       </c>
       <c r="BU2" s="1">
-        <v>1339.480000</v>
+        <v>1339.48</v>
       </c>
       <c r="BV2" s="1">
-        <v>-682.357000</v>
+        <v>-682.35699999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>76847.437865</v>
@@ -706,906 +1122,906 @@
         <v>21.346511</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1473.460000</v>
+        <v>1473.46</v>
       </c>
       <c r="CA2" s="1">
-        <v>-890.034000</v>
+        <v>-890.03399999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>76858.347333</v>
+        <v>76858.347332999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.349541</v>
+        <v>21.349540999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1821.850000</v>
+        <v>1821.85</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1380.120000</v>
+        <v>-1380.12</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>76689.126245</v>
+        <v>76689.126245000007</v>
       </c>
       <c r="B3" s="1">
-        <v>21.302535</v>
+        <v>21.302534999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>902.715000</v>
+        <v>902.71500000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.442000</v>
+        <v>-198.44200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>76699.493127</v>
+        <v>76699.493126999994</v>
       </c>
       <c r="G3" s="1">
         <v>21.305415</v>
       </c>
       <c r="H3" s="1">
-        <v>921.011000</v>
+        <v>921.01099999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.896000</v>
+        <v>-168.89599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>76709.946314</v>
+        <v>76709.946314000001</v>
       </c>
       <c r="L3" s="1">
         <v>21.308318</v>
       </c>
       <c r="M3" s="1">
-        <v>944.960000</v>
+        <v>944.96</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.445000</v>
+        <v>-120.44499999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>76720.109862</v>
+        <v>76720.109861999998</v>
       </c>
       <c r="Q3" s="1">
         <v>21.311142</v>
       </c>
       <c r="R3" s="1">
-        <v>952.024000</v>
+        <v>952.024</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.465000</v>
+        <v>-104.465</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>76730.980655</v>
+        <v>76730.980655000007</v>
       </c>
       <c r="V3" s="1">
-        <v>21.314161</v>
+        <v>21.314160999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>958.943000</v>
+        <v>958.94299999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.399200</v>
+        <v>-89.399199999999993</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>76741.427424</v>
+        <v>76741.427423999994</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.317063</v>
+        <v>21.317063000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.615000</v>
+        <v>966.61500000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.614100</v>
+        <v>-77.614099999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>76752.046242</v>
+        <v>76752.046241999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.320013</v>
+        <v>21.320012999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.580000</v>
+        <v>971.58</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.262000</v>
+        <v>-75.262</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>76761.860581</v>
+        <v>76761.860581000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.322739</v>
+        <v>21.322738999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.011000</v>
+        <v>979.01099999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.692200</v>
+        <v>-79.6922</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>76772.132268</v>
+        <v>76772.132268000001</v>
       </c>
       <c r="AP3" s="1">
         <v>21.325592</v>
       </c>
       <c r="AQ3" s="1">
-        <v>987.207000</v>
+        <v>987.20699999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.988800</v>
+        <v>-90.988799999999998</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>76782.833945</v>
+        <v>76782.833945000006</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.328565</v>
+        <v>21.328565000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.165000</v>
+        <v>997.16499999999996</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.304000</v>
+        <v>-108.304</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>76793.900156</v>
+        <v>76793.900156000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.331639</v>
+        <v>21.331638999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.500000</v>
+        <v>1005.5</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.692000</v>
+        <v>-123.69199999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>76804.658412</v>
+        <v>76804.658412000004</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.334627</v>
+        <v>21.334627000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1044.320000</v>
+        <v>1044.32</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.318000</v>
+        <v>-194.31800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>76815.275248</v>
+        <v>76815.275248000005</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.337576</v>
+        <v>21.337575999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1111.000000</v>
+        <v>1111</v>
       </c>
       <c r="BL3" s="1">
-        <v>-308.400000</v>
+        <v>-308.39999999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>76826.436224</v>
+        <v>76826.436224000005</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.340677</v>
+        <v>21.340676999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-487.279000</v>
+        <v>-487.279</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>76837.217762</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.343672</v>
+        <v>21.343672000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1339.560000</v>
+        <v>1339.56</v>
       </c>
       <c r="BV3" s="1">
-        <v>-682.449000</v>
+        <v>-682.44899999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>76847.907081</v>
+        <v>76847.907080999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>21.346641</v>
+        <v>21.346641000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1473.500000</v>
+        <v>1473.5</v>
       </c>
       <c r="CA3" s="1">
-        <v>-890.055000</v>
+        <v>-890.05499999999995</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>76858.914758</v>
+        <v>76858.914757999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.349699</v>
+        <v>21.349699000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1822.060000</v>
+        <v>1822.06</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1380.280000</v>
+        <v>-1380.28</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>76689.467529</v>
+        <v>76689.467529000001</v>
       </c>
       <c r="B4" s="1">
-        <v>21.302630</v>
+        <v>21.302630000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>902.650000</v>
+        <v>902.65</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.596000</v>
+        <v>-198.596</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>76699.836359</v>
+        <v>76699.836358999994</v>
       </c>
       <c r="G4" s="1">
-        <v>21.305510</v>
+        <v>21.305510000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>920.810000</v>
+        <v>920.81</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.941000</v>
+        <v>-168.941</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>76710.291034</v>
+        <v>76710.291033999994</v>
       </c>
       <c r="L4" s="1">
-        <v>21.308414</v>
+        <v>21.308413999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>945.001000</v>
+        <v>945.00099999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.442000</v>
+        <v>-120.44199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>76720.771040</v>
+        <v>76720.771040000007</v>
       </c>
       <c r="Q4" s="1">
         <v>21.311325</v>
       </c>
       <c r="R4" s="1">
-        <v>952.031000</v>
+        <v>952.03099999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.419000</v>
+        <v>-104.419</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>76731.350702</v>
+        <v>76731.350701999996</v>
       </c>
       <c r="V4" s="1">
-        <v>21.314264</v>
+        <v>21.314264000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>959.069000</v>
+        <v>959.06899999999996</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.328000</v>
+        <v>-89.328000000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>76741.816751</v>
+        <v>76741.816751000006</v>
       </c>
       <c r="AA4" s="1">
-        <v>21.317171</v>
+        <v>21.317170999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.675000</v>
+        <v>966.67499999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.638500</v>
+        <v>-77.638499999999993</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>76752.388980</v>
+        <v>76752.388980000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>21.320108</v>
+        <v>21.320108000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.567000</v>
+        <v>971.56700000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.312100</v>
+        <v>-75.312100000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>76762.205300</v>
+        <v>76762.205300000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>21.322835</v>
+        <v>21.322835000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.014000</v>
+        <v>979.01400000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.723300</v>
+        <v>-79.723299999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>76772.492335</v>
+        <v>76772.492335000003</v>
       </c>
       <c r="AP4" s="1">
         <v>21.325692</v>
       </c>
       <c r="AQ4" s="1">
-        <v>987.230000</v>
+        <v>987.23</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.011100</v>
+        <v>-91.011099999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>76783.258527</v>
+        <v>76783.258526999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.328683</v>
+        <v>21.328683000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>997.171000</v>
+        <v>997.17100000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.274000</v>
+        <v>-108.274</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>76794.318284</v>
+        <v>76794.318283999994</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.331755</v>
+        <v>21.331755000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.510000</v>
+        <v>1005.51</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.682000</v>
+        <v>-123.682</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>76804.982799</v>
+        <v>76804.982799000005</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.334717</v>
+        <v>21.334717000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1044.310000</v>
+        <v>1044.31</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.323000</v>
+        <v>-194.32300000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>76815.677006</v>
+        <v>76815.677005999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>21.337688</v>
       </c>
       <c r="BK4" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL4" s="1">
-        <v>-308.390000</v>
+        <v>-308.39</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>76826.860799</v>
+        <v>76826.860799000002</v>
       </c>
       <c r="BO4" s="1">
         <v>21.340795</v>
       </c>
       <c r="BP4" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-487.259000</v>
+        <v>-487.25900000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>76837.652284</v>
+        <v>76837.652283999996</v>
       </c>
       <c r="BT4" s="1">
-        <v>21.343792</v>
+        <v>21.343792000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1339.560000</v>
+        <v>1339.56</v>
       </c>
       <c r="BV4" s="1">
-        <v>-682.548000</v>
+        <v>-682.548</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>76848.340547</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.346761</v>
+        <v>21.346761000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1473.470000</v>
+        <v>1473.47</v>
       </c>
       <c r="CA4" s="1">
-        <v>-890.071000</v>
+        <v>-890.07100000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>76859.436548</v>
+        <v>76859.436547999998</v>
       </c>
       <c r="CD4" s="1">
         <v>21.349843</v>
       </c>
       <c r="CE4" s="1">
-        <v>1821.270000</v>
+        <v>1821.27</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1381.070000</v>
+        <v>-1381.07</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>76689.809237</v>
+        <v>76689.809236999994</v>
       </c>
       <c r="B5" s="1">
-        <v>21.302725</v>
+        <v>21.302724999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>902.741000</v>
+        <v>902.74099999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.514000</v>
+        <v>-198.51400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>76700.500998</v>
+        <v>76700.500998000003</v>
       </c>
       <c r="G5" s="1">
         <v>21.305695</v>
       </c>
       <c r="H5" s="1">
-        <v>920.994000</v>
+        <v>920.99400000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.710000</v>
+        <v>-168.71</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>76710.727512</v>
+        <v>76710.727511999998</v>
       </c>
       <c r="L5" s="1">
-        <v>21.308535</v>
+        <v>21.308534999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>945.051000</v>
+        <v>945.05100000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.587000</v>
+        <v>-120.587</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>76721.152949</v>
+        <v>76721.152948999996</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.311431</v>
+        <v>21.311430999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>952.037000</v>
+        <v>952.03700000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.435000</v>
+        <v>-104.435</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>76731.693901</v>
+        <v>76731.693901000006</v>
       </c>
       <c r="V5" s="1">
         <v>21.314359</v>
       </c>
       <c r="W5" s="1">
-        <v>959.022000</v>
+        <v>959.02200000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.348100</v>
+        <v>-89.348100000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>76742.160975</v>
+        <v>76742.160975000006</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.317267</v>
+        <v>21.317267000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.637000</v>
+        <v>966.63699999999994</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.616300</v>
+        <v>-77.616299999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>76752.732705</v>
+        <v>76752.732705000002</v>
       </c>
       <c r="AF5" s="1">
         <v>21.320204</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.583000</v>
+        <v>971.58299999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.323000</v>
+        <v>-75.322999999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>76762.617972</v>
+        <v>76762.617971999993</v>
       </c>
       <c r="AK5" s="1">
-        <v>21.322949</v>
+        <v>21.322949000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.015000</v>
+        <v>979.01499999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.724600</v>
+        <v>-79.724599999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>76772.920870</v>
+        <v>76772.920870000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.325811</v>
+        <v>21.325811000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>987.233000</v>
+        <v>987.23299999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.969800</v>
+        <v>-90.969800000000006</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>76783.563033</v>
+        <v>76783.563032999999</v>
       </c>
       <c r="AU5" s="1">
         <v>21.328768</v>
       </c>
       <c r="AV5" s="1">
-        <v>997.140000</v>
+        <v>997.14</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.300000</v>
+        <v>-108.3</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>76794.705194</v>
+        <v>76794.705193999995</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.331863</v>
+        <v>21.331862999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.500000</v>
+        <v>1005.5</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.682000</v>
+        <v>-123.682</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>76805.341372</v>
+        <v>76805.341371999995</v>
       </c>
       <c r="BE5" s="1">
-        <v>21.334817</v>
+        <v>21.334817000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1044.310000</v>
+        <v>1044.31</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.321000</v>
+        <v>-194.321</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>76816.053469</v>
+        <v>76816.053469000006</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.337793</v>
+        <v>21.337793000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1111.040000</v>
+        <v>1111.04</v>
       </c>
       <c r="BL5" s="1">
-        <v>-308.410000</v>
+        <v>-308.41000000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>76827.421811</v>
+        <v>76827.421810999993</v>
       </c>
       <c r="BO5" s="1">
         <v>21.340951</v>
       </c>
       <c r="BP5" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-487.261000</v>
+        <v>-487.26100000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>76838.077824</v>
+        <v>76838.077824000007</v>
       </c>
       <c r="BT5" s="1">
-        <v>21.343911</v>
+        <v>21.343910999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1339.610000</v>
+        <v>1339.61</v>
       </c>
       <c r="BV5" s="1">
-        <v>-682.590000</v>
+        <v>-682.59</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>76848.752226</v>
+        <v>76848.752225999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.346876</v>
+        <v>21.346876000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1473.480000</v>
+        <v>1473.48</v>
       </c>
       <c r="CA5" s="1">
-        <v>-890.157000</v>
+        <v>-890.15700000000004</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>76859.951395</v>
+        <v>76859.951394999996</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.349986</v>
+        <v>21.349986000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1822.290000</v>
+        <v>1822.29</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1381.910000</v>
+        <v>-1381.91</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>76690.465443</v>
+        <v>76690.465442999994</v>
       </c>
       <c r="B6" s="1">
-        <v>21.302907</v>
+        <v>21.302907000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>902.735000</v>
+        <v>902.73500000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.455000</v>
+        <v>-198.45500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>76700.875477</v>
+        <v>76700.875476999994</v>
       </c>
       <c r="G6" s="1">
         <v>21.305799</v>
       </c>
       <c r="H6" s="1">
-        <v>920.352000</v>
+        <v>920.35199999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.840000</v>
+        <v>-168.84</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>76711.006792</v>
       </c>
       <c r="L6" s="1">
-        <v>21.308613</v>
+        <v>21.308613000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>944.865000</v>
+        <v>944.86500000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.700000</v>
+        <v>-120.7</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>76721.492194</v>
+        <v>76721.492194000006</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.311526</v>
+        <v>21.311526000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>952.067000</v>
+        <v>952.06700000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.434000</v>
+        <v>-104.434</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>76732.039612</v>
+        <v>76732.039611999993</v>
       </c>
       <c r="V6" s="1">
-        <v>21.314455</v>
+        <v>21.314454999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>959.127000</v>
+        <v>959.12699999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.363200</v>
+        <v>-89.363200000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>76742.515615</v>
+        <v>76742.515614999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.317365</v>
+        <v>21.317364999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.706000</v>
+        <v>966.70600000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.625400</v>
+        <v>-77.625399999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>76753.144385</v>
+        <v>76753.144385000007</v>
       </c>
       <c r="AF6" s="1">
         <v>21.320318</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.567000</v>
+        <v>971.56700000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.275700</v>
+        <v>-75.275700000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>76762.898707</v>
@@ -1614,2024 +2030,2024 @@
         <v>21.323027</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.994000</v>
+        <v>978.99400000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.725900</v>
+        <v>-79.725899999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>76773.212022</v>
+        <v>76773.212022000007</v>
       </c>
       <c r="AP6" s="1">
         <v>21.325892</v>
       </c>
       <c r="AQ6" s="1">
-        <v>987.219000</v>
+        <v>987.21900000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.989700</v>
+        <v>-90.989699999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>76783.928583</v>
+        <v>76783.928583000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>21.328869</v>
+        <v>21.328869000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>997.163000</v>
+        <v>997.16300000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.288000</v>
+        <v>-108.288</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>76795.086108</v>
+        <v>76795.086108000003</v>
       </c>
       <c r="AZ6" s="1">
         <v>21.331968</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.490000</v>
+        <v>1005.49</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.696000</v>
+        <v>-123.696</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>76805.705963</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.334918</v>
+        <v>21.334917999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1044.330000</v>
+        <v>1044.33</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.334000</v>
+        <v>-194.334</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>76816.802430</v>
+        <v>76816.802429999996</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.338001</v>
+        <v>21.338000999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1111.010000</v>
+        <v>1111.01</v>
       </c>
       <c r="BL6" s="1">
-        <v>-308.404000</v>
+        <v>-308.404</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>76827.680717</v>
+        <v>76827.680716999996</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.341022</v>
+        <v>21.341021999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1218.740000</v>
+        <v>1218.74</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-487.255000</v>
+        <v>-487.255</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>76838.489503</v>
+        <v>76838.489503000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.344025</v>
+        <v>21.344024999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1339.610000</v>
+        <v>1339.61</v>
       </c>
       <c r="BV6" s="1">
-        <v>-682.720000</v>
+        <v>-682.72</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>76849.174817</v>
+        <v>76849.174817000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.346993</v>
+        <v>21.346993000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1473.590000</v>
+        <v>1473.59</v>
       </c>
       <c r="CA6" s="1">
-        <v>-890.102000</v>
+        <v>-890.10199999999998</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>76860.469227</v>
+        <v>76860.469226999994</v>
       </c>
       <c r="CD6" s="1">
-        <v>21.350130</v>
+        <v>21.35013</v>
       </c>
       <c r="CE6" s="1">
-        <v>1822.930000</v>
+        <v>1822.93</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1380.960000</v>
+        <v>-1380.96</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>76690.835460</v>
+        <v>76690.835460000002</v>
       </c>
       <c r="B7" s="1">
-        <v>21.303010</v>
+        <v>21.30301</v>
       </c>
       <c r="C7" s="1">
-        <v>902.703000</v>
+        <v>902.70299999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.463000</v>
+        <v>-198.46299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>76701.220197</v>
+        <v>76701.220197000002</v>
       </c>
       <c r="G7" s="1">
-        <v>21.305894</v>
+        <v>21.305893999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>920.716000</v>
+        <v>920.71600000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.583000</v>
+        <v>-168.583</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>76711.351976</v>
+        <v>76711.351976000005</v>
       </c>
       <c r="L7" s="1">
         <v>21.308709</v>
       </c>
       <c r="M7" s="1">
-        <v>944.907000</v>
+        <v>944.90700000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.414000</v>
+        <v>-120.414</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>76721.850330</v>
+        <v>76721.850330000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.311625</v>
+        <v>21.311624999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>952.090000</v>
+        <v>952.09</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.469000</v>
+        <v>-104.46899999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>76732.465675</v>
+        <v>76732.465674999999</v>
       </c>
       <c r="V7" s="1">
         <v>21.314574</v>
       </c>
       <c r="W7" s="1">
-        <v>959.121000</v>
+        <v>959.12099999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.301200</v>
+        <v>-89.301199999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>76742.967010</v>
+        <v>76742.967009999993</v>
       </c>
       <c r="AA7" s="1">
         <v>21.317491</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.547000</v>
+        <v>966.54700000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.671800</v>
+        <v>-77.671800000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>76753.423636</v>
+        <v>76753.423636000007</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.320395</v>
+        <v>21.320395000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.561000</v>
+        <v>971.56100000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.272100</v>
+        <v>-75.272099999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>76763.251859</v>
+        <v>76763.251858999996</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.323126</v>
+        <v>21.323125999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.977000</v>
+        <v>978.97699999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.708300</v>
+        <v>-79.708299999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>76773.577606</v>
+        <v>76773.577606000006</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.325994</v>
+        <v>21.325994000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>987.212000</v>
+        <v>987.21199999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.009700</v>
+        <v>-91.009699999999995</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>76784.291687</v>
+        <v>76784.291687000004</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.328970</v>
+        <v>21.328970000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>997.160000</v>
+        <v>997.16</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.291000</v>
+        <v>-108.291</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>76795.802312</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.332167</v>
+        <v>21.332166999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.510000</v>
+        <v>1005.51</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.699000</v>
+        <v>-123.699</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>76806.425626</v>
+        <v>76806.425625999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.335118</v>
+        <v>21.335118000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1044.320000</v>
+        <v>1044.32</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.320000</v>
+        <v>-194.32</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>76817.179885</v>
+        <v>76817.179885000005</v>
       </c>
       <c r="BJ7" s="1">
         <v>21.338106</v>
       </c>
       <c r="BK7" s="1">
-        <v>1111.030000</v>
+        <v>1111.03</v>
       </c>
       <c r="BL7" s="1">
-        <v>-308.407000</v>
+        <v>-308.40699999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>76828.076989</v>
+        <v>76828.076988999994</v>
       </c>
       <c r="BO7" s="1">
-        <v>21.341132</v>
+        <v>21.341132000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-487.267000</v>
+        <v>-487.267</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>76838.921023</v>
+        <v>76838.921023000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>21.344145</v>
+        <v>21.344145000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1339.630000</v>
+        <v>1339.63</v>
       </c>
       <c r="BV7" s="1">
-        <v>-682.761000</v>
+        <v>-682.76099999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>76849.920841</v>
+        <v>76849.920840999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.347200</v>
+        <v>21.347200000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1473.430000</v>
+        <v>1473.43</v>
       </c>
       <c r="CA7" s="1">
-        <v>-890.162000</v>
+        <v>-890.16200000000003</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>76860.987090</v>
+        <v>76860.987089999995</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.350274</v>
+        <v>21.350273999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1822.860000</v>
+        <v>1822.86</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1381.470000</v>
+        <v>-1381.47</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>76691.179682</v>
+        <v>76691.179682000002</v>
       </c>
       <c r="B8" s="1">
-        <v>21.303105</v>
+        <v>21.303104999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>902.817000</v>
+        <v>902.81700000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.374000</v>
+        <v>-198.374</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>76701.567396</v>
+        <v>76701.567395999999</v>
       </c>
       <c r="G8" s="1">
-        <v>21.305991</v>
+        <v>21.305990999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>920.753000</v>
+        <v>920.75300000000004</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.550000</v>
+        <v>-168.55</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>76711.769143</v>
+        <v>76711.769142999998</v>
       </c>
       <c r="L8" s="1">
-        <v>21.308825</v>
+        <v>21.308824999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>944.939000</v>
+        <v>944.93899999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.540000</v>
+        <v>-120.54</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>76722.284297</v>
+        <v>76722.284297000006</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.311746</v>
+        <v>21.311745999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>952.053000</v>
+        <v>952.053</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.463000</v>
+        <v>-104.46299999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>76732.746941</v>
+        <v>76732.746941000005</v>
       </c>
       <c r="V8" s="1">
-        <v>21.314652</v>
+        <v>21.314651999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>959.006000</v>
+        <v>959.00599999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.334000</v>
+        <v>-89.334000000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>76743.224397</v>
+        <v>76743.224396999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.317562</v>
+        <v>21.317561999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.557000</v>
+        <v>966.55700000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.620100</v>
+        <v>-77.620099999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>76753.766369</v>
+        <v>76753.766369000004</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.320491</v>
+        <v>21.320491000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.588000</v>
+        <v>971.58799999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.269800</v>
+        <v>-75.269800000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>76763.601540</v>
+        <v>76763.601540000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>21.323223</v>
+        <v>21.323222999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.989000</v>
+        <v>978.98900000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.688600</v>
+        <v>-79.688599999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>76773.931718</v>
+        <v>76773.931718000007</v>
       </c>
       <c r="AP8" s="1">
-        <v>21.326092</v>
+        <v>21.326091999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>987.235000</v>
+        <v>987.23500000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.983900</v>
+        <v>-90.983900000000006</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>76785.021303</v>
+        <v>76785.021303000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>21.329173</v>
+        <v>21.329173000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>997.162000</v>
+        <v>997.16200000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.297000</v>
+        <v>-108.297</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>76796.159431</v>
+        <v>76796.159430999993</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.332267</v>
+        <v>21.332267000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.510000</v>
+        <v>1005.51</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.687000</v>
+        <v>-123.687</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>76806.788729</v>
+        <v>76806.788729000007</v>
       </c>
       <c r="BE8" s="1">
-        <v>21.335219</v>
+        <v>21.335218999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1044.310000</v>
+        <v>1044.31</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.325000</v>
+        <v>-194.32499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>76817.555357</v>
+        <v>76817.555357000005</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.338210</v>
+        <v>21.33821</v>
       </c>
       <c r="BK8" s="1">
-        <v>1111.010000</v>
+        <v>1111.01</v>
       </c>
       <c r="BL8" s="1">
-        <v>-308.398000</v>
+        <v>-308.39800000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>76828.813548</v>
+        <v>76828.813548000006</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.341337</v>
+        <v>21.341336999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1218.730000</v>
+        <v>1218.73</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-487.270000</v>
+        <v>-487.27</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>76839.668494</v>
+        <v>76839.668493999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>21.344352</v>
+        <v>21.344352000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1339.520000</v>
+        <v>1339.52</v>
       </c>
       <c r="BV8" s="1">
-        <v>-682.851000</v>
+        <v>-682.851</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>76850.038355</v>
+        <v>76850.038354999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>21.347233</v>
+        <v>21.347232999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1473.440000</v>
+        <v>1473.44</v>
       </c>
       <c r="CA8" s="1">
-        <v>-890.166000</v>
+        <v>-890.16600000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>76861.539089</v>
+        <v>76861.539088999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.350428</v>
+        <v>21.350428000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1822.130000</v>
+        <v>1822.13</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1381.610000</v>
+        <v>-1381.61</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>76691.518451</v>
+        <v>76691.518450999996</v>
       </c>
       <c r="B9" s="1">
-        <v>21.303200</v>
+        <v>21.3032</v>
       </c>
       <c r="C9" s="1">
-        <v>902.664000</v>
+        <v>902.66399999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.552000</v>
+        <v>-198.55199999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>76701.992468</v>
+        <v>76701.992467999997</v>
       </c>
       <c r="G9" s="1">
-        <v>21.306109</v>
+        <v>21.306108999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>920.890000</v>
+        <v>920.89</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.779000</v>
+        <v>-168.779</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>76712.048856</v>
+        <v>76712.048855999994</v>
       </c>
       <c r="L9" s="1">
         <v>21.308902</v>
       </c>
       <c r="M9" s="1">
-        <v>944.888000</v>
+        <v>944.88800000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.505000</v>
+        <v>-120.505</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>76722.551641</v>
+        <v>76722.551640999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.311820</v>
+        <v>21.311820000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>952.046000</v>
+        <v>952.04600000000005</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.465000</v>
+        <v>-104.465</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>76733.089643</v>
+        <v>76733.089642999999</v>
       </c>
       <c r="V9" s="1">
-        <v>21.314747</v>
+        <v>21.314747000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>959.052000</v>
+        <v>959.05200000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.267500</v>
+        <v>-89.267499999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>76743.575567</v>
+        <v>76743.575567000007</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.317660</v>
+        <v>21.31766</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.665000</v>
+        <v>966.66499999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.641500</v>
+        <v>-77.641499999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>76754.112139</v>
+        <v>76754.112139000004</v>
       </c>
       <c r="AF9" s="1">
         <v>21.320587</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.544000</v>
+        <v>971.54399999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.331100</v>
+        <v>-75.331100000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>76764.298418</v>
+        <v>76764.298418000006</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.323416</v>
+        <v>21.323416000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.003000</v>
+        <v>979.00300000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.713600</v>
+        <v>-79.7136</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>76774.656372</v>
+        <v>76774.656371999998</v>
       </c>
       <c r="AP9" s="1">
         <v>21.326293</v>
       </c>
       <c r="AQ9" s="1">
-        <v>987.222000</v>
+        <v>987.22199999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.971600</v>
+        <v>-90.971599999999995</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>76785.408646</v>
+        <v>76785.408645999996</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.329280</v>
+        <v>21.329280000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>997.162000</v>
+        <v>997.16200000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.300000</v>
+        <v>-108.3</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>76796.519527</v>
+        <v>76796.519526999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.332367</v>
+        <v>21.332367000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.500000</v>
+        <v>1005.5</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.700000</v>
+        <v>-123.7</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>76807.147801</v>
+        <v>76807.147800999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.335319</v>
+        <v>21.335318999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1044.330000</v>
+        <v>1044.33</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.331000</v>
+        <v>-194.33099999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>76818.247770</v>
+        <v>76818.247770000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>21.338402</v>
+        <v>21.338401999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL9" s="1">
-        <v>-308.417000</v>
+        <v>-308.41699999999997</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>76829.327405</v>
+        <v>76829.327405000004</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.341480</v>
+        <v>21.341480000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1218.750000</v>
+        <v>1218.75</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-487.279000</v>
+        <v>-487.279</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>76839.797454</v>
       </c>
       <c r="BT9" s="1">
-        <v>21.344388</v>
+        <v>21.344387999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1339.500000</v>
+        <v>1339.5</v>
       </c>
       <c r="BV9" s="1">
-        <v>-682.971000</v>
+        <v>-682.971</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>76850.459992</v>
+        <v>76850.459992000004</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.347350</v>
+        <v>21.347349999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1473.430000</v>
+        <v>1473.43</v>
       </c>
       <c r="CA9" s="1">
-        <v>-890.179000</v>
+        <v>-890.17899999999997</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>76862.066337</v>
+        <v>76862.066336999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.350574</v>
+        <v>21.350574000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1822.660000</v>
+        <v>1822.66</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1380.780000</v>
+        <v>-1380.78</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>76691.948513</v>
+        <v>76691.948512999996</v>
       </c>
       <c r="B10" s="1">
-        <v>21.303319</v>
+        <v>21.303318999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>902.660000</v>
+        <v>902.66</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.394000</v>
+        <v>-198.39400000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>76702.264311</v>
+        <v>76702.264311000006</v>
       </c>
       <c r="G10" s="1">
-        <v>21.306185</v>
+        <v>21.306184999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>920.381000</v>
+        <v>920.38099999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.843000</v>
+        <v>-168.84299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>76712.395558</v>
+        <v>76712.395558000004</v>
       </c>
       <c r="L10" s="1">
         <v>21.308999</v>
       </c>
       <c r="M10" s="1">
-        <v>944.929000</v>
+        <v>944.92899999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.698000</v>
+        <v>-120.69799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>76722.899864</v>
+        <v>76722.899864000006</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.311917</v>
+        <v>21.311917000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>952.045000</v>
+        <v>952.04499999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.449000</v>
+        <v>-104.449</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>76733.433370</v>
+        <v>76733.433369999999</v>
       </c>
       <c r="V10" s="1">
         <v>21.314843</v>
       </c>
       <c r="W10" s="1">
-        <v>959.072000</v>
+        <v>959.072</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.415700</v>
+        <v>-89.415700000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>76744.274499</v>
+        <v>76744.274499000006</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.317854</v>
+        <v>21.317854000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.590000</v>
+        <v>966.59</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.653500</v>
+        <v>-77.653499999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>76754.798047</v>
+        <v>76754.798047000004</v>
       </c>
       <c r="AF10" s="1">
         <v>21.320777</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.547000</v>
+        <v>971.54700000000003</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.320300</v>
+        <v>-75.320300000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>76764.648097</v>
+        <v>76764.648096999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.323513</v>
+        <v>21.323512999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.977000</v>
+        <v>978.97699999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.696500</v>
+        <v>-79.6965</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>76775.012995</v>
+        <v>76775.012994999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>21.326392</v>
+        <v>21.326391999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>987.204000</v>
+        <v>987.20399999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.989100</v>
+        <v>-90.989099999999993</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>76785.776677</v>
+        <v>76785.776677000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.329382</v>
+        <v>21.329381999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>997.163000</v>
+        <v>997.16300000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.300000</v>
+        <v>-108.3</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>76797.195078</v>
+        <v>76797.195078000004</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.332554</v>
+        <v>21.332553999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.510000</v>
+        <v>1005.51</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.699000</v>
+        <v>-123.699</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>76807.829305</v>
+        <v>76807.829305000007</v>
       </c>
       <c r="BE10" s="1">
-        <v>21.335508</v>
+        <v>21.335508000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1044.340000</v>
+        <v>1044.3399999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.312000</v>
+        <v>-194.31200000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>76818.679289</v>
+        <v>76818.679289000007</v>
       </c>
       <c r="BJ10" s="1">
-        <v>21.338522</v>
+        <v>21.338522000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL10" s="1">
-        <v>-308.388000</v>
+        <v>-308.38799999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>76829.737595</v>
+        <v>76829.737594999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.341594</v>
+        <v>21.341594000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-487.261000</v>
+        <v>-487.26100000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>76840.207645</v>
+        <v>76840.207645000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>21.344502</v>
+        <v>21.344501999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1339.390000</v>
+        <v>1339.39</v>
       </c>
       <c r="BV10" s="1">
-        <v>-682.947000</v>
+        <v>-682.947</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>76850.883537</v>
+        <v>76850.883537000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.347468</v>
+        <v>21.347467999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1473.420000</v>
+        <v>1473.42</v>
       </c>
       <c r="CA10" s="1">
-        <v>-890.153000</v>
+        <v>-890.15300000000002</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>76862.585648</v>
+        <v>76862.585647999993</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.350718</v>
+        <v>21.350718000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1821.420000</v>
+        <v>1821.42</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1380.910000</v>
+        <v>-1380.91</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>76692.219794</v>
+        <v>76692.219794000004</v>
       </c>
       <c r="B11" s="1">
-        <v>21.303394</v>
+        <v>21.303394000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>902.727000</v>
+        <v>902.72699999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.522000</v>
+        <v>-198.52199999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>76702.607539</v>
+        <v>76702.607539000004</v>
       </c>
       <c r="G11" s="1">
-        <v>21.306280</v>
+        <v>21.306280000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>921.005000</v>
+        <v>921.005</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.363000</v>
+        <v>-168.363</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>76712.739782</v>
+        <v>76712.739782000004</v>
       </c>
       <c r="L11" s="1">
-        <v>21.309094</v>
+        <v>21.309094000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>944.928000</v>
+        <v>944.928</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.481000</v>
+        <v>-120.48099999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>76723.251000</v>
+        <v>76723.251000000004</v>
       </c>
       <c r="Q11" s="1">
-        <v>21.312014</v>
+        <v>21.312014000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>952.059000</v>
+        <v>952.05899999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.447000</v>
+        <v>-104.447</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>76734.116858</v>
+        <v>76734.116857999994</v>
       </c>
       <c r="V11" s="1">
-        <v>21.315032</v>
+        <v>21.315031999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>959.093000</v>
+        <v>959.09299999999996</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.396100</v>
+        <v>-89.396100000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>76744.624414</v>
+        <v>76744.624414000005</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.317951</v>
+        <v>21.317951000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.625000</v>
+        <v>966.625</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.637300</v>
+        <v>-77.637299999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>76755.142766</v>
+        <v>76755.142766000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.320873</v>
+        <v>21.320872999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.578000</v>
+        <v>971.57799999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.132100</v>
+        <v>-75.132099999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>76764.993313</v>
+        <v>76764.993312999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.323609</v>
+        <v>21.323609000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.985000</v>
+        <v>978.98500000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.709400</v>
+        <v>-79.709400000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>76775.374579</v>
+        <v>76775.374578999996</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.326493</v>
+        <v>21.326492999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>987.217000</v>
+        <v>987.21699999999998</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.988000</v>
+        <v>-90.988</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>76786.449786</v>
+        <v>76786.449785999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>21.329569</v>
+        <v>21.329568999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>997.180000</v>
+        <v>997.18</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.289000</v>
+        <v>-108.289</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>76797.593365</v>
+        <v>76797.593364999993</v>
       </c>
       <c r="AZ11" s="1">
-        <v>21.332665</v>
+        <v>21.332664999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.510000</v>
+        <v>1005.51</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.696000</v>
+        <v>-123.696</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>76808.258345</v>
+        <v>76808.258344999995</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.335627</v>
+        <v>21.335626999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1044.340000</v>
+        <v>1044.3399999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.313000</v>
+        <v>-194.31299999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>76819.055258</v>
+        <v>76819.055257999993</v>
       </c>
       <c r="BJ11" s="1">
-        <v>21.338626</v>
+        <v>21.338626000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL11" s="1">
-        <v>-308.416000</v>
+        <v>-308.416</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>76830.136876</v>
+        <v>76830.136876000004</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.341705</v>
+        <v>21.341705000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-487.271000</v>
+        <v>-487.27100000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>76840.637677</v>
+        <v>76840.637677000006</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.344622</v>
+        <v>21.344622000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1339.300000</v>
+        <v>1339.3</v>
       </c>
       <c r="BV11" s="1">
-        <v>-682.968000</v>
+        <v>-682.96799999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>76851.320510</v>
+        <v>76851.320510000005</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.347589</v>
+        <v>21.347588999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1473.450000</v>
+        <v>1473.45</v>
       </c>
       <c r="CA11" s="1">
-        <v>-890.047000</v>
+        <v>-890.04700000000003</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>76863.126287</v>
+        <v>76863.126287000006</v>
       </c>
       <c r="CD11" s="1">
-        <v>21.350868</v>
+        <v>21.350867999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1822.620000</v>
+        <v>1822.62</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1381.590000</v>
+        <v>-1381.59</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>76692.560551</v>
+        <v>76692.560551000002</v>
       </c>
       <c r="B12" s="1">
-        <v>21.303489</v>
+        <v>21.303488999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>902.770000</v>
+        <v>902.77</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.477000</v>
+        <v>-198.477</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>76702.950738</v>
       </c>
       <c r="G12" s="1">
-        <v>21.306375</v>
+        <v>21.306374999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>920.975000</v>
+        <v>920.97500000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.684000</v>
+        <v>-168.684</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>76713.428762</v>
+        <v>76713.428761999996</v>
       </c>
       <c r="L12" s="1">
         <v>21.309286</v>
       </c>
       <c r="M12" s="1">
-        <v>944.839000</v>
+        <v>944.83900000000006</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.617000</v>
+        <v>-120.617</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>76723.945933</v>
+        <v>76723.945932999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.312207</v>
+        <v>21.312207000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>952.068000</v>
+        <v>952.06799999999998</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.469000</v>
+        <v>-104.46899999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>76734.462106</v>
+        <v>76734.462106000006</v>
       </c>
       <c r="V12" s="1">
-        <v>21.315128</v>
+        <v>21.315128000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>958.967000</v>
+        <v>958.96699999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.421000</v>
+        <v>-89.421000000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>76744.971803</v>
+        <v>76744.971802999993</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.318048</v>
+        <v>21.318048000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.618000</v>
+        <v>966.61800000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.615800</v>
+        <v>-77.615799999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>76755.485502</v>
+        <v>76755.485501999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>21.320968</v>
+        <v>21.320968000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.588000</v>
+        <v>971.58799999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.454500</v>
+        <v>-75.454499999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>76765.657489</v>
+        <v>76765.657489000005</v>
       </c>
       <c r="AK12" s="1">
-        <v>21.323794</v>
+        <v>21.323793999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.010000</v>
+        <v>979.01</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.696600</v>
+        <v>-79.696600000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>76776.070467</v>
+        <v>76776.070466999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.326686</v>
+        <v>21.326685999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>987.241000</v>
+        <v>987.24099999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.004200</v>
+        <v>-91.004199999999997</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>76786.905571</v>
+        <v>76786.905570999996</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.329696</v>
+        <v>21.329695999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>997.170000</v>
+        <v>997.17</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.291000</v>
+        <v>-108.291</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>76797.983221</v>
+        <v>76797.983221000002</v>
       </c>
       <c r="AZ12" s="1">
         <v>21.332773</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.500000</v>
+        <v>1005.5</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.692000</v>
+        <v>-123.69199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>76808.624391</v>
+        <v>76808.624391000005</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.335729</v>
+        <v>21.335729000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1044.340000</v>
+        <v>1044.3399999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.318000</v>
+        <v>-194.31800000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>76819.429769</v>
+        <v>76819.429768999995</v>
       </c>
       <c r="BJ12" s="1">
-        <v>21.338730</v>
+        <v>21.338730000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1111.040000</v>
+        <v>1111.04</v>
       </c>
       <c r="BL12" s="1">
-        <v>-308.414000</v>
+        <v>-308.41399999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>76830.565914</v>
+        <v>76830.565914000006</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.341824</v>
+        <v>21.341823999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1218.730000</v>
+        <v>1218.73</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-487.296000</v>
+        <v>-487.29599999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>76841.070189</v>
+        <v>76841.070189000005</v>
       </c>
       <c r="BT12" s="1">
         <v>21.344742</v>
       </c>
       <c r="BU12" s="1">
-        <v>1339.260000</v>
+        <v>1339.26</v>
       </c>
       <c r="BV12" s="1">
-        <v>-682.983000</v>
+        <v>-682.98299999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>76851.750575</v>
+        <v>76851.750574999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.347708</v>
+        <v>21.347708000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1473.490000</v>
+        <v>1473.49</v>
       </c>
       <c r="CA12" s="1">
-        <v>-890.149000</v>
+        <v>-890.149</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>76863.664943</v>
+        <v>76863.664942999996</v>
       </c>
       <c r="CD12" s="1">
         <v>21.351018</v>
       </c>
       <c r="CE12" s="1">
-        <v>1822.200000</v>
+        <v>1822.2</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1380.220000</v>
+        <v>-1380.22</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>76692.904768</v>
+        <v>76692.904767999993</v>
       </c>
       <c r="B13" s="1">
-        <v>21.303585</v>
+        <v>21.303585000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>902.720000</v>
+        <v>902.72</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.446000</v>
+        <v>-198.446</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>76703.640215</v>
+        <v>76703.640215000007</v>
       </c>
       <c r="G13" s="1">
-        <v>21.306567</v>
+        <v>21.306567000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>920.832000</v>
+        <v>920.83199999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.707000</v>
+        <v>-168.70699999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>76713.779428</v>
+        <v>76713.779427999994</v>
       </c>
       <c r="L13" s="1">
         <v>21.309383</v>
       </c>
       <c r="M13" s="1">
-        <v>944.850000</v>
+        <v>944.85</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.502000</v>
+        <v>-120.502</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>76724.296566</v>
+        <v>76724.296566000005</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.312305</v>
+        <v>21.312304999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>952.064000</v>
+        <v>952.06399999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.520000</v>
+        <v>-104.52</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>76734.804808</v>
+        <v>76734.804808000001</v>
       </c>
       <c r="V13" s="1">
-        <v>21.315224</v>
+        <v>21.315224000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>959.084000</v>
+        <v>959.08399999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.345800</v>
+        <v>-89.345799999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>76745.630522</v>
+        <v>76745.630522000007</v>
       </c>
       <c r="AA13" s="1">
-        <v>21.318231</v>
+        <v>21.318231000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.700000</v>
+        <v>966.7</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.680400</v>
+        <v>-77.680400000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>76756.154109</v>
+        <v>76756.154108999996</v>
       </c>
       <c r="AF13" s="1">
         <v>21.321154</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.509000</v>
+        <v>971.50900000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.320600</v>
+        <v>-75.320599999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>76766.039873</v>
+        <v>76766.039873000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.323900</v>
+        <v>21.323899999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.994000</v>
+        <v>978.99400000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.696600</v>
+        <v>-79.696600000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>76776.480162</v>
+        <v>76776.480162000007</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.326800</v>
+        <v>21.326799999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>987.227000</v>
+        <v>987.22699999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.995900</v>
+        <v>-90.995900000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>76787.271124</v>
+        <v>76787.271124000006</v>
       </c>
       <c r="AU13" s="1">
         <v>21.329798</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.173000</v>
+        <v>997.173</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.287000</v>
+        <v>-108.28700000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>76798.342854</v>
+        <v>76798.342854000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>21.332873</v>
+        <v>21.332872999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.500000</v>
+        <v>1005.5</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.697000</v>
+        <v>-123.697</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>76808.985975</v>
+        <v>76808.985975000003</v>
       </c>
       <c r="BE13" s="1">
         <v>21.335829</v>
       </c>
       <c r="BF13" s="1">
-        <v>1044.320000</v>
+        <v>1044.32</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.343000</v>
+        <v>-194.34299999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>76819.863738</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.338851</v>
+        <v>21.338850999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL13" s="1">
-        <v>-308.401000</v>
+        <v>-308.40100000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>76830.951802</v>
+        <v>76830.951801999996</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.341931</v>
+        <v>21.341930999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1218.730000</v>
+        <v>1218.73</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-487.286000</v>
+        <v>-487.286</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>76841.469004</v>
+        <v>76841.469003999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>21.344853</v>
+        <v>21.344853000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1339.200000</v>
+        <v>1339.2</v>
       </c>
       <c r="BV13" s="1">
-        <v>-682.951000</v>
+        <v>-682.95100000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>76852.170655</v>
+        <v>76852.170654999994</v>
       </c>
       <c r="BY13" s="1">
         <v>21.347825</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1473.590000</v>
+        <v>1473.59</v>
       </c>
       <c r="CA13" s="1">
-        <v>-890.195000</v>
+        <v>-890.19500000000005</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>76864.207069</v>
+        <v>76864.207068999996</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.351169</v>
+        <v>21.351168999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1821.930000</v>
+        <v>1821.93</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1382.040000</v>
+        <v>-1382.04</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>76693.613056</v>
+        <v>76693.613056000002</v>
       </c>
       <c r="B14" s="1">
-        <v>21.303781</v>
+        <v>21.303781000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>902.642000</v>
+        <v>902.64200000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.319000</v>
+        <v>-198.31899999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>76703.985426</v>
+        <v>76703.985425999999</v>
       </c>
       <c r="G14" s="1">
         <v>21.306663</v>
       </c>
       <c r="H14" s="1">
-        <v>920.513000</v>
+        <v>920.51300000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.507000</v>
+        <v>-168.50700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>76714.125141</v>
+        <v>76714.125140999997</v>
       </c>
       <c r="L14" s="1">
         <v>21.309479</v>
       </c>
       <c r="M14" s="1">
-        <v>944.895000</v>
+        <v>944.89499999999998</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.579000</v>
+        <v>-120.57899999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>76724.644759</v>
+        <v>76724.644759000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.312401</v>
+        <v>21.312401000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>952.030000</v>
+        <v>952.03</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.504000</v>
+        <v>-104.504</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>76735.467959</v>
+        <v>76735.467959000001</v>
       </c>
       <c r="V14" s="1">
-        <v>21.315408</v>
+        <v>21.315408000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>959.140000</v>
+        <v>959.14</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.339900</v>
+        <v>-89.3399</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>76746.014895</v>
@@ -3640,1570 +4056,1570 @@
         <v>21.318337</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.616000</v>
+        <v>966.61599999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.671200</v>
+        <v>-77.671199999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>76756.523628</v>
+        <v>76756.523627999995</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.321257</v>
+        <v>21.321256999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.580000</v>
+        <v>971.58</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.304800</v>
+        <v>-75.3048</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>76766.389559</v>
+        <v>76766.389559000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.323997</v>
+        <v>21.323996999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.998000</v>
+        <v>978.99800000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.709500</v>
+        <v>-79.709500000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>76776.872497</v>
+        <v>76776.872497000004</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.326909</v>
+        <v>21.326909000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>987.212000</v>
+        <v>987.21199999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.006500</v>
+        <v>-91.006500000000003</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>76787.637231</v>
+        <v>76787.637231000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>21.329899</v>
+        <v>21.329899000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.172000</v>
+        <v>997.17200000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.286000</v>
+        <v>-108.286</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>76798.757476</v>
+        <v>76798.757475999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>21.332988</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.520000</v>
+        <v>1005.52</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.691000</v>
+        <v>-123.691</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>76809.412039</v>
+        <v>76809.412039000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.335948</v>
+        <v>21.335947999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1044.320000</v>
+        <v>1044.32</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.317000</v>
+        <v>-194.31700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>76820.211469</v>
+        <v>76820.211469000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.338948</v>
+        <v>21.338947999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL14" s="1">
-        <v>-308.399000</v>
+        <v>-308.399</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>76831.373437</v>
+        <v>76831.373437000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.342048</v>
+        <v>21.342047999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-487.266000</v>
+        <v>-487.26600000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>76841.884123</v>
+        <v>76841.884122999996</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.344968</v>
+        <v>21.344968000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1339.140000</v>
+        <v>1339.14</v>
       </c>
       <c r="BV14" s="1">
-        <v>-682.904000</v>
+        <v>-682.904</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>76852.596253</v>
+        <v>76852.596252999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.347943</v>
+        <v>21.347943000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1473.470000</v>
+        <v>1473.47</v>
       </c>
       <c r="CA14" s="1">
-        <v>-890.069000</v>
+        <v>-890.06899999999996</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>76864.741758</v>
+        <v>76864.741758000004</v>
       </c>
       <c r="CD14" s="1">
-        <v>21.351317</v>
+        <v>21.351317000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>1822.420000</v>
+        <v>1822.42</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1380.670000</v>
+        <v>-1380.67</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>76693.955824</v>
+        <v>76693.955824000004</v>
       </c>
       <c r="B15" s="1">
         <v>21.303877</v>
       </c>
       <c r="C15" s="1">
-        <v>902.704000</v>
+        <v>902.70399999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.378000</v>
+        <v>-198.37799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>76704.331137</v>
+        <v>76704.331137000001</v>
       </c>
       <c r="G15" s="1">
         <v>21.306759</v>
       </c>
       <c r="H15" s="1">
-        <v>920.667000</v>
+        <v>920.66700000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.467000</v>
+        <v>-168.46700000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>76714.787267</v>
+        <v>76714.787267000007</v>
       </c>
       <c r="L15" s="1">
         <v>21.309663</v>
       </c>
       <c r="M15" s="1">
-        <v>945.023000</v>
+        <v>945.02300000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.574000</v>
+        <v>-120.574</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>76725.319814</v>
+        <v>76725.319814000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.312589</v>
+        <v>21.312588999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>952.020000</v>
+        <v>952.02</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.451000</v>
+        <v>-104.45099999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>76735.835495</v>
+        <v>76735.835495000007</v>
       </c>
       <c r="V15" s="1">
-        <v>21.315510</v>
+        <v>21.31551</v>
       </c>
       <c r="W15" s="1">
-        <v>959.029000</v>
+        <v>959.029</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.394200</v>
+        <v>-89.394199999999998</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>76746.366057</v>
+        <v>76746.366057000007</v>
       </c>
       <c r="AA15" s="1">
-        <v>21.318435</v>
+        <v>21.318435000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.691000</v>
+        <v>966.69100000000003</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.657600</v>
+        <v>-77.657600000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>76756.866859</v>
+        <v>76756.866859000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>21.321352</v>
+        <v>21.321352000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.609000</v>
+        <v>971.60900000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.235200</v>
+        <v>-75.235200000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>76766.737743</v>
+        <v>76766.737743000005</v>
       </c>
       <c r="AK15" s="1">
-        <v>21.324094</v>
+        <v>21.324093999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.019000</v>
+        <v>979.01900000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.704700</v>
+        <v>-79.704700000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>76777.442896</v>
+        <v>76777.442895999993</v>
       </c>
       <c r="AP15" s="1">
         <v>21.327067</v>
       </c>
       <c r="AQ15" s="1">
-        <v>987.224000</v>
+        <v>987.22400000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.995800</v>
+        <v>-90.995800000000003</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>76788.062276</v>
+        <v>76788.062275999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>21.330017</v>
+        <v>21.330017000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>997.185000</v>
+        <v>997.18499999999995</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.316000</v>
+        <v>-108.316</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>76799.059043</v>
+        <v>76799.059043000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.333072</v>
+        <v>21.333072000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.510000</v>
+        <v>1005.51</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.694000</v>
+        <v>-123.694</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>76809.736917</v>
+        <v>76809.736917000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.336038</v>
+        <v>21.336037999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1044.330000</v>
+        <v>1044.33</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.339000</v>
+        <v>-194.339</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>76820.589879</v>
+        <v>76820.589879000006</v>
       </c>
       <c r="BJ15" s="1">
         <v>21.339053</v>
       </c>
       <c r="BK15" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL15" s="1">
-        <v>-308.396000</v>
+        <v>-308.39600000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>76831.770200</v>
+        <v>76831.770199999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.342158</v>
+        <v>21.342158000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1218.750000</v>
+        <v>1218.75</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-487.258000</v>
+        <v>-487.25799999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>76842.300763</v>
+        <v>76842.300763000007</v>
       </c>
       <c r="BT15" s="1">
         <v>21.345084</v>
       </c>
       <c r="BU15" s="1">
-        <v>1339.090000</v>
+        <v>1339.09</v>
       </c>
       <c r="BV15" s="1">
-        <v>-682.805000</v>
+        <v>-682.80499999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>76853.040140</v>
+        <v>76853.040139999997</v>
       </c>
       <c r="BY15" s="1">
         <v>21.348067</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1473.480000</v>
+        <v>1473.48</v>
       </c>
       <c r="CA15" s="1">
-        <v>-890.263000</v>
+        <v>-890.26300000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>76865.284876</v>
+        <v>76865.284876000005</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.351468</v>
+        <v>21.351468000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1821.340000</v>
+        <v>1821.34</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1380.960000</v>
+        <v>-1380.96</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>76694.620926</v>
+        <v>76694.620926000003</v>
       </c>
       <c r="B16" s="1">
-        <v>21.304061</v>
+        <v>21.304061000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>902.713000</v>
+        <v>902.71299999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.319000</v>
+        <v>-198.31899999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>76704.992768</v>
+        <v>76704.992767999996</v>
       </c>
       <c r="G16" s="1">
-        <v>21.306942</v>
+        <v>21.306941999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>921.064000</v>
+        <v>921.06399999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.638000</v>
+        <v>-168.63800000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>76715.163235</v>
       </c>
       <c r="L16" s="1">
-        <v>21.309768</v>
+        <v>21.309767999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>945.011000</v>
+        <v>945.01099999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.459000</v>
+        <v>-120.459</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>76725.692308</v>
+        <v>76725.692307999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.312692</v>
+        <v>21.312691999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>952.060000</v>
+        <v>952.06</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.395000</v>
+        <v>-104.395</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>76736.179260</v>
+        <v>76736.179260000004</v>
       </c>
       <c r="V16" s="1">
-        <v>21.315605</v>
+        <v>21.315605000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>959.069000</v>
+        <v>959.06899999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.395800</v>
+        <v>-89.395799999999994</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>76746.716264</v>
+        <v>76746.716264000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>21.318532</v>
+        <v>21.318532000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.603000</v>
+        <v>966.60299999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.668400</v>
+        <v>-77.668400000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>76757.211083</v>
+        <v>76757.211083000002</v>
       </c>
       <c r="AF16" s="1">
         <v>21.321448</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.557000</v>
+        <v>971.55700000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.339300</v>
+        <v>-75.339299999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>76767.159373</v>
+        <v>76767.159373000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.324211</v>
+        <v>21.324210999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.984000</v>
+        <v>978.98400000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.689600</v>
+        <v>-79.689599999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>76777.591698</v>
+        <v>76777.591698000004</v>
       </c>
       <c r="AP16" s="1">
         <v>21.327109</v>
       </c>
       <c r="AQ16" s="1">
-        <v>987.204000</v>
+        <v>987.20399999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.014700</v>
+        <v>-91.014700000000005</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>76788.362355</v>
+        <v>76788.362355000005</v>
       </c>
       <c r="AU16" s="1">
-        <v>21.330101</v>
+        <v>21.330100999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>997.173000</v>
+        <v>997.173</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.303000</v>
+        <v>-108.303</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>76799.418652</v>
+        <v>76799.418651999993</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.333172</v>
+        <v>21.333172000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.500000</v>
+        <v>1005.5</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.698000</v>
+        <v>-123.69799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>76810.065271</v>
+        <v>76810.065270999999</v>
       </c>
       <c r="BE16" s="1">
         <v>21.336129</v>
       </c>
       <c r="BF16" s="1">
-        <v>1044.340000</v>
+        <v>1044.3399999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.326000</v>
+        <v>-194.32599999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>76820.965351</v>
+        <v>76820.965351000006</v>
       </c>
       <c r="BJ16" s="1">
         <v>21.339157</v>
       </c>
       <c r="BK16" s="1">
-        <v>1111.030000</v>
+        <v>1111.03</v>
       </c>
       <c r="BL16" s="1">
-        <v>-308.393000</v>
+        <v>-308.39299999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>76832.197256</v>
+        <v>76832.197255999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.342277</v>
+        <v>21.342276999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-487.290000</v>
+        <v>-487.29</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>76842.737242</v>
+        <v>76842.737242000003</v>
       </c>
       <c r="BT16" s="1">
         <v>21.345205</v>
       </c>
       <c r="BU16" s="1">
-        <v>1339.030000</v>
+        <v>1339.03</v>
       </c>
       <c r="BV16" s="1">
-        <v>-682.769000</v>
+        <v>-682.76900000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>76853.472652</v>
+        <v>76853.472651999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.348187</v>
+        <v>21.348186999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1473.450000</v>
+        <v>1473.45</v>
       </c>
       <c r="CA16" s="1">
-        <v>-890.209000</v>
+        <v>-890.20899999999995</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>76865.824075</v>
+        <v>76865.824074999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.351618</v>
+        <v>21.351617999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1822.670000</v>
+        <v>1822.67</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1381.500000</v>
+        <v>-1381.5</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>76694.982013</v>
+        <v>76694.982013000001</v>
       </c>
       <c r="B17" s="1">
-        <v>21.304162</v>
+        <v>21.304162000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>902.643000</v>
+        <v>902.64300000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.450000</v>
+        <v>-198.45</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>76705.362826</v>
+        <v>76705.362825999997</v>
       </c>
       <c r="G17" s="1">
-        <v>21.307045</v>
+        <v>21.307044999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>920.967000</v>
+        <v>920.96699999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.662000</v>
+        <v>-168.66200000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>76715.507458</v>
+        <v>76715.507457999993</v>
       </c>
       <c r="L17" s="1">
         <v>21.309863</v>
       </c>
       <c r="M17" s="1">
-        <v>944.979000</v>
+        <v>944.97900000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.723000</v>
+        <v>-120.723</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>76726.044468</v>
+        <v>76726.044467999993</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.312790</v>
+        <v>21.31279</v>
       </c>
       <c r="R17" s="1">
-        <v>952.089000</v>
+        <v>952.08900000000006</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.405000</v>
+        <v>-104.405</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>76736.531879</v>
+        <v>76736.531879000002</v>
       </c>
       <c r="V17" s="1">
-        <v>21.315703</v>
+        <v>21.315702999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>959.108000</v>
+        <v>959.10799999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.383600</v>
+        <v>-89.383600000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>76747.148744</v>
+        <v>76747.148744000006</v>
       </c>
       <c r="AA17" s="1">
         <v>21.318652</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.618000</v>
+        <v>966.61800000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.573700</v>
+        <v>-77.573700000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>76757.641612</v>
+        <v>76757.641612000007</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.321567</v>
+        <v>21.321567000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.570000</v>
+        <v>971.57</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.274700</v>
+        <v>-75.274699999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>76767.442093</v>
+        <v>76767.442093000005</v>
       </c>
       <c r="AK17" s="1">
         <v>21.324289</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.995000</v>
+        <v>978.995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.721700</v>
+        <v>-79.721699999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>76777.953296</v>
+        <v>76777.953296000007</v>
       </c>
       <c r="AP17" s="1">
         <v>21.327209</v>
       </c>
       <c r="AQ17" s="1">
-        <v>987.224000</v>
+        <v>987.22400000000005</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.989600</v>
+        <v>-90.989599999999996</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>76788.727377</v>
+        <v>76788.727377000003</v>
       </c>
       <c r="AU17" s="1">
         <v>21.330202</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.159000</v>
+        <v>997.15899999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.318000</v>
+        <v>-108.318</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>76799.774274</v>
+        <v>76799.774273999996</v>
       </c>
       <c r="AZ17" s="1">
         <v>21.333271</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.500000</v>
+        <v>1005.5</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.694000</v>
+        <v>-123.694</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>76810.611399</v>
+        <v>76810.611399000001</v>
       </c>
       <c r="BE17" s="1">
         <v>21.336281</v>
       </c>
       <c r="BF17" s="1">
-        <v>1044.360000</v>
+        <v>1044.3599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.323000</v>
+        <v>-194.32300000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>76821.735638</v>
+        <v>76821.735637999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>21.339371</v>
       </c>
       <c r="BK17" s="1">
-        <v>1111.030000</v>
+        <v>1111.03</v>
       </c>
       <c r="BL17" s="1">
-        <v>-308.413000</v>
+        <v>-308.41300000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>76832.584633</v>
+        <v>76832.584633000006</v>
       </c>
       <c r="BO17" s="1">
         <v>21.342385</v>
       </c>
       <c r="BP17" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-487.279000</v>
+        <v>-487.279</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>76843.132059</v>
+        <v>76843.132058999996</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.345314</v>
+        <v>21.345313999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1339.040000</v>
+        <v>1339.04</v>
       </c>
       <c r="BV17" s="1">
-        <v>-682.720000</v>
+        <v>-682.72</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>76853.896235</v>
+        <v>76853.896234999993</v>
       </c>
       <c r="BY17" s="1">
         <v>21.348305</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1473.530000</v>
+        <v>1473.53</v>
       </c>
       <c r="CA17" s="1">
-        <v>-890.106000</v>
+        <v>-890.10599999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>76866.679131</v>
+        <v>76866.679130999997</v>
       </c>
       <c r="CD17" s="1">
         <v>21.351855</v>
       </c>
       <c r="CE17" s="1">
-        <v>1821.230000</v>
+        <v>1821.23</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1381.360000</v>
+        <v>-1381.36</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>76695.327762</v>
+        <v>76695.327762000001</v>
       </c>
       <c r="B18" s="1">
-        <v>21.304258</v>
+        <v>21.304258000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>902.879000</v>
+        <v>902.87900000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.419000</v>
+        <v>-198.41900000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>76705.710479</v>
+        <v>76705.710479000001</v>
       </c>
       <c r="G18" s="1">
-        <v>21.307142</v>
+        <v>21.307141999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>920.758000</v>
+        <v>920.75800000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.813000</v>
+        <v>-168.81299999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>76715.852712</v>
+        <v>76715.852712000007</v>
       </c>
       <c r="L18" s="1">
-        <v>21.309959</v>
+        <v>21.309958999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>944.924000</v>
+        <v>944.92399999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.623000</v>
+        <v>-120.623</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>76726.394690</v>
+        <v>76726.394690000001</v>
       </c>
       <c r="Q18" s="1">
         <v>21.312887</v>
       </c>
       <c r="R18" s="1">
-        <v>952.145000</v>
+        <v>952.14499999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.330000</v>
+        <v>-104.33</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>76736.954967</v>
+        <v>76736.954966999998</v>
       </c>
       <c r="V18" s="1">
         <v>21.315821</v>
       </c>
       <c r="W18" s="1">
-        <v>959.110000</v>
+        <v>959.11</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.260500</v>
+        <v>-89.260499999999993</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>76747.429976</v>
+        <v>76747.429975999999</v>
       </c>
       <c r="AA18" s="1">
         <v>21.318731</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.696000</v>
+        <v>966.69600000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.569600</v>
+        <v>-77.569599999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>76757.912426</v>
+        <v>76757.912425999995</v>
       </c>
       <c r="AF18" s="1">
-        <v>21.321642</v>
+        <v>21.321642000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.632000</v>
+        <v>971.63199999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.265700</v>
+        <v>-75.265699999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>76767.787773</v>
+        <v>76767.787773000004</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.324385</v>
+        <v>21.324384999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.014000</v>
+        <v>979.01400000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.699300</v>
+        <v>-79.699299999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>76778.313375</v>
+        <v>76778.313374999998</v>
       </c>
       <c r="AP18" s="1">
         <v>21.327309</v>
       </c>
       <c r="AQ18" s="1">
-        <v>987.234000</v>
+        <v>987.23400000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.993000</v>
+        <v>-90.992999999999995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>76789.091937</v>
+        <v>76789.091937000005</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.330303</v>
+        <v>21.330303000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>997.185000</v>
+        <v>997.18499999999995</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.295000</v>
+        <v>-108.295</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>76800.499923</v>
+        <v>76800.499922999996</v>
       </c>
       <c r="AZ18" s="1">
         <v>21.333472</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.500000</v>
+        <v>1005.5</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.690000</v>
+        <v>-123.69</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>76810.788934</v>
+        <v>76810.788933999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>21.336330</v>
+        <v>21.33633</v>
       </c>
       <c r="BF18" s="1">
-        <v>1044.330000</v>
+        <v>1044.33</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.339000</v>
+        <v>-194.339</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>76822.109158</v>
+        <v>76822.109158000007</v>
       </c>
       <c r="BJ18" s="1">
         <v>21.339475</v>
       </c>
       <c r="BK18" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL18" s="1">
-        <v>-308.388000</v>
+        <v>-308.38799999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>76833.005735</v>
+        <v>76833.005734999999</v>
       </c>
       <c r="BO18" s="1">
         <v>21.342502</v>
       </c>
       <c r="BP18" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-487.292000</v>
+        <v>-487.29199999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>76843.554155</v>
+        <v>76843.554155000005</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.345432</v>
+        <v>21.345431999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1339.080000</v>
+        <v>1339.08</v>
       </c>
       <c r="BV18" s="1">
-        <v>-682.673000</v>
+        <v>-682.673</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>76854.629850</v>
+        <v>76854.629849999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.348508</v>
+        <v>21.348507999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1473.660000</v>
+        <v>1473.66</v>
       </c>
       <c r="CA18" s="1">
-        <v>-890.100000</v>
+        <v>-890.1</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>76866.902826</v>
+        <v>76866.902826000005</v>
       </c>
       <c r="CD18" s="1">
         <v>21.351917</v>
       </c>
       <c r="CE18" s="1">
-        <v>1821.320000</v>
+        <v>1821.32</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1381.410000</v>
+        <v>-1381.41</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>76695.670956</v>
+        <v>76695.670956000002</v>
       </c>
       <c r="B19" s="1">
-        <v>21.304353</v>
+        <v>21.304352999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>902.670000</v>
+        <v>902.67</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.536000</v>
+        <v>-198.536</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>76706.051726</v>
+        <v>76706.051726000005</v>
       </c>
       <c r="G19" s="1">
-        <v>21.307237</v>
+        <v>21.307237000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>920.756000</v>
+        <v>920.75599999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.640000</v>
+        <v>-168.64</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>76716.284194</v>
+        <v>76716.284194000007</v>
       </c>
       <c r="L19" s="1">
-        <v>21.310079</v>
+        <v>21.310079000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>944.912000</v>
+        <v>944.91200000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.539000</v>
+        <v>-120.539</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>76726.880723</v>
+        <v>76726.880722999995</v>
       </c>
       <c r="Q19" s="1">
         <v>21.313022</v>
       </c>
       <c r="R19" s="1">
-        <v>952.147000</v>
+        <v>952.14700000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.360000</v>
+        <v>-104.36</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>76737.234709</v>
+        <v>76737.234708999997</v>
       </c>
       <c r="V19" s="1">
-        <v>21.315899</v>
+        <v>21.315899000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>959.110000</v>
+        <v>959.11</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.295000</v>
+        <v>-89.295000000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>76747.777671</v>
+        <v>76747.777671000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.318827</v>
+        <v>21.318826999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.563000</v>
+        <v>966.56299999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.600500</v>
+        <v>-77.600499999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>76758.255662</v>
+        <v>76758.255661999996</v>
       </c>
       <c r="AF19" s="1">
         <v>21.321738</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.580000</v>
+        <v>971.58</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.266600</v>
+        <v>-75.266599999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>76768.139946</v>
+        <v>76768.139945999996</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.324483</v>
+        <v>21.324483000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.990000</v>
+        <v>978.99</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.713200</v>
+        <v>-79.713200000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>76779.039518</v>
+        <v>76779.039518000005</v>
       </c>
       <c r="AP19" s="1">
-        <v>21.327511</v>
+        <v>21.327511000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>987.252000</v>
+        <v>987.25199999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.000900</v>
+        <v>-91.000900000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>76789.821552</v>
+        <v>76789.821551999994</v>
       </c>
       <c r="AU19" s="1">
         <v>21.330506</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.187000</v>
+        <v>997.18700000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.293000</v>
+        <v>-108.29300000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>76800.876914</v>
+        <v>76800.876913999993</v>
       </c>
       <c r="AZ19" s="1">
-        <v>21.333577</v>
+        <v>21.333576999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.540000</v>
+        <v>1005.54</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.678000</v>
+        <v>-123.678</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>76811.152501</v>
+        <v>76811.152501000004</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.336431</v>
+        <v>21.336431000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1044.330000</v>
+        <v>1044.33</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.335000</v>
+        <v>-194.33500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>76822.487076</v>
+        <v>76822.487076000005</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.339580</v>
+        <v>21.339580000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1111.040000</v>
+        <v>1111.04</v>
       </c>
       <c r="BL19" s="1">
-        <v>-308.426000</v>
+        <v>-308.42599999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>76833.718982</v>
+        <v>76833.718982000006</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.342700</v>
+        <v>21.342700000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-487.281000</v>
+        <v>-487.28100000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>76844.012952</v>
+        <v>76844.012952000005</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.345559</v>
+        <v>21.345559000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1339.050000</v>
+        <v>1339.05</v>
       </c>
       <c r="BV19" s="1">
-        <v>-682.595000</v>
+        <v>-682.59500000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>76854.786058</v>
+        <v>76854.786057999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.348552</v>
+        <v>21.348552000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1473.600000</v>
+        <v>1473.6</v>
       </c>
       <c r="CA19" s="1">
-        <v>-890.135000</v>
+        <v>-890.13499999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>76867.421655</v>
+        <v>76867.421654999998</v>
       </c>
       <c r="CD19" s="1">
         <v>21.352062</v>
       </c>
       <c r="CE19" s="1">
-        <v>1822.330000</v>
+        <v>1822.33</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1381.850000</v>
+        <v>-1381.85</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>76696.096029</v>
+        <v>76696.096028999993</v>
       </c>
       <c r="B20" s="1">
-        <v>21.304471</v>
+        <v>21.304470999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>902.748000</v>
+        <v>902.74800000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.499000</v>
+        <v>-198.499</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>76706.481758</v>
+        <v>76706.481757999994</v>
       </c>
       <c r="G20" s="1">
-        <v>21.307356</v>
+        <v>21.307355999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>920.731000</v>
+        <v>920.73099999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.589000</v>
+        <v>-168.589</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>76716.564433</v>
+        <v>76716.564433000007</v>
       </c>
       <c r="L20" s="1">
         <v>21.310157</v>
       </c>
       <c r="M20" s="1">
-        <v>944.879000</v>
+        <v>944.87900000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.609000</v>
+        <v>-120.60899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>76727.090036</v>
+        <v>76727.090035999994</v>
       </c>
       <c r="Q20" s="1">
         <v>21.313081</v>
       </c>
       <c r="R20" s="1">
-        <v>952.119000</v>
+        <v>952.11900000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.364000</v>
+        <v>-104.364</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>76737.579449</v>
+        <v>76737.579448999997</v>
       </c>
       <c r="V20" s="1">
         <v>21.315994</v>
       </c>
       <c r="W20" s="1">
-        <v>959.052000</v>
+        <v>959.05200000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.409000</v>
+        <v>-89.409000000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>76748.126856</v>
+        <v>76748.126856000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.318924</v>
+        <v>21.318923999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.591000</v>
+        <v>966.59100000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.577400</v>
+        <v>-77.577399999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>76758.598889</v>
+        <v>76758.598889000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.321833</v>
+        <v>21.321833000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.557000</v>
+        <v>971.55700000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.242400</v>
+        <v>-75.242400000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>76768.832876</v>
@@ -5212,1645 +5628,1645 @@
         <v>21.324676</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.009000</v>
+        <v>979.00900000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.689900</v>
+        <v>-79.689899999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>76779.417965</v>
+        <v>76779.417965000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>21.327616</v>
+        <v>21.327615999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>987.233000</v>
+        <v>987.23299999999995</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.997100</v>
+        <v>-90.997100000000003</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>76790.210415</v>
+        <v>76790.210414999994</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.330614</v>
+        <v>21.330614000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>997.196000</v>
+        <v>997.19600000000003</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.303000</v>
+        <v>-108.303</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>76801.265249</v>
+        <v>76801.265249000004</v>
       </c>
       <c r="AZ20" s="1">
-        <v>21.333685</v>
+        <v>21.333684999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.520000</v>
+        <v>1005.52</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.698000</v>
+        <v>-123.69799999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>76811.830531</v>
       </c>
       <c r="BE20" s="1">
-        <v>21.336620</v>
+        <v>21.33662</v>
       </c>
       <c r="BF20" s="1">
-        <v>1044.320000</v>
+        <v>1044.32</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.313000</v>
+        <v>-194.31299999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>76823.179492</v>
+        <v>76823.179491999996</v>
       </c>
       <c r="BJ20" s="1">
         <v>21.339772</v>
       </c>
       <c r="BK20" s="1">
-        <v>1111.050000</v>
+        <v>1111.05</v>
       </c>
       <c r="BL20" s="1">
-        <v>-308.383000</v>
+        <v>-308.38299999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>76833.840997</v>
+        <v>76833.840997000007</v>
       </c>
       <c r="BO20" s="1">
         <v>21.342734</v>
       </c>
       <c r="BP20" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-487.268000</v>
+        <v>-487.26799999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>76844.412233</v>
+        <v>76844.412232999995</v>
       </c>
       <c r="BT20" s="1">
-        <v>21.345670</v>
+        <v>21.345669999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1339.100000</v>
+        <v>1339.1</v>
       </c>
       <c r="BV20" s="1">
-        <v>-682.557000</v>
+        <v>-682.55700000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>76855.210666</v>
+        <v>76855.210665999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.348670</v>
+        <v>21.348669999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1473.540000</v>
+        <v>1473.54</v>
       </c>
       <c r="CA20" s="1">
-        <v>-890.148000</v>
+        <v>-890.14800000000002</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>76867.941945</v>
+        <v>76867.941944999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.352206</v>
+        <v>21.352205999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1821.810000</v>
+        <v>1821.81</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1381.830000</v>
+        <v>-1381.83</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>76696.370843</v>
+        <v>76696.370842999997</v>
       </c>
       <c r="B21" s="1">
-        <v>21.304547</v>
+        <v>21.304546999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>902.712000</v>
+        <v>902.71199999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.413000</v>
+        <v>-198.41300000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>76706.749630</v>
+        <v>76706.749630000006</v>
       </c>
       <c r="G21" s="1">
-        <v>21.307430</v>
+        <v>21.30743</v>
       </c>
       <c r="H21" s="1">
-        <v>920.907000</v>
+        <v>920.90700000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.757000</v>
+        <v>-168.75700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>76716.907665</v>
+        <v>76716.907665000006</v>
       </c>
       <c r="L21" s="1">
-        <v>21.310252</v>
+        <v>21.310251999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>944.875000</v>
+        <v>944.875</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.610000</v>
+        <v>-120.61</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>76727.437266</v>
+        <v>76727.437265999994</v>
       </c>
       <c r="Q21" s="1">
         <v>21.313177</v>
       </c>
       <c r="R21" s="1">
-        <v>952.075000</v>
+        <v>952.07500000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.349000</v>
+        <v>-104.349</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>76737.923156</v>
+        <v>76737.923156000004</v>
       </c>
       <c r="V21" s="1">
-        <v>21.316090</v>
+        <v>21.316089999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>959.048000</v>
+        <v>959.048</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.387400</v>
+        <v>-89.3874</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>76748.819270</v>
+        <v>76748.819270000007</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.319116</v>
+        <v>21.319116000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.640000</v>
+        <v>966.64</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.599700</v>
+        <v>-77.599699999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>76759.283370</v>
+        <v>76759.283370000005</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.322023</v>
+        <v>21.322023000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.560000</v>
+        <v>971.56</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.289500</v>
+        <v>-75.289500000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>76769.184043</v>
+        <v>76769.184043000001</v>
       </c>
       <c r="AK21" s="1">
         <v>21.324773</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.999000</v>
+        <v>978.99900000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.709100</v>
+        <v>-79.709100000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>76779.803854</v>
+        <v>76779.803853999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>21.327723</v>
+        <v>21.327722999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>987.213000</v>
+        <v>987.21299999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.001500</v>
+        <v>-91.001499999999993</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>76790.574510</v>
+        <v>76790.574510000006</v>
       </c>
       <c r="AU21" s="1">
-        <v>21.330715</v>
+        <v>21.330715000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>997.178000</v>
+        <v>997.178</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.310000</v>
+        <v>-108.31</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>76801.943776</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.333873</v>
+        <v>21.333873000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.510000</v>
+        <v>1005.51</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.688000</v>
+        <v>-123.688</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>76812.236754</v>
+        <v>76812.236753999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.336732</v>
+        <v>21.336732000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1044.340000</v>
+        <v>1044.3399999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.326000</v>
+        <v>-194.32599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>76823.642260</v>
+        <v>76823.642259999993</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.339901</v>
+        <v>21.339901000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL21" s="1">
-        <v>-308.411000</v>
+        <v>-308.411</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>76834.249701</v>
+        <v>76834.249700999993</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.342847</v>
+        <v>21.342846999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1218.740000</v>
+        <v>1218.74</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-487.285000</v>
+        <v>-487.28500000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>76844.824408</v>
       </c>
       <c r="BT21" s="1">
-        <v>21.345785</v>
+        <v>21.345784999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1339.140000</v>
+        <v>1339.14</v>
       </c>
       <c r="BV21" s="1">
-        <v>-682.453000</v>
+        <v>-682.45299999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>76855.658521</v>
+        <v>76855.658521000005</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.348794</v>
+        <v>21.348794000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1473.420000</v>
+        <v>1473.42</v>
       </c>
       <c r="CA21" s="1">
-        <v>-890.124000</v>
+        <v>-890.12400000000002</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>76868.492504</v>
+        <v>76868.492503999994</v>
       </c>
       <c r="CD21" s="1">
         <v>21.352359</v>
       </c>
       <c r="CE21" s="1">
-        <v>1821.230000</v>
+        <v>1821.23</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1381.170000</v>
+        <v>-1381.17</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>76696.711896</v>
+        <v>76696.711895999993</v>
       </c>
       <c r="B22" s="1">
-        <v>21.304642</v>
+        <v>21.304642000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>902.667000</v>
+        <v>902.66700000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.472000</v>
+        <v>-198.47200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>76707.093822</v>
+        <v>76707.093821999995</v>
       </c>
       <c r="G22" s="1">
-        <v>21.307526</v>
+        <v>21.307525999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>920.804000</v>
+        <v>920.80399999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.333000</v>
+        <v>-168.333</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>76717.253389</v>
+        <v>76717.253389000005</v>
       </c>
       <c r="L22" s="1">
-        <v>21.310348</v>
+        <v>21.310348000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>944.858000</v>
+        <v>944.85799999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.547000</v>
+        <v>-120.547</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>76728.138082</v>
+        <v>76728.138082000005</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.313372</v>
+        <v>21.313372000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>952.133000</v>
+        <v>952.13300000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.288000</v>
+        <v>-104.288</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>76738.608211</v>
+        <v>76738.608210999999</v>
       </c>
       <c r="V22" s="1">
-        <v>21.316280</v>
+        <v>21.316279999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>958.974000</v>
+        <v>958.97400000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.285000</v>
+        <v>-89.284999999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>76749.169941</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.319214</v>
+        <v>21.319213999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.616000</v>
+        <v>966.61599999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.639300</v>
+        <v>-77.639300000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>76759.628088</v>
+        <v>76759.628087999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.322119</v>
+        <v>21.322119000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.550000</v>
+        <v>971.55</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.267200</v>
+        <v>-75.267200000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>76769.530219</v>
+        <v>76769.530218999993</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.324870</v>
+        <v>21.324870000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.992000</v>
+        <v>978.99199999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.706300</v>
+        <v>-79.706299999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>76780.475932</v>
+        <v>76780.475932000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.327910</v>
+        <v>21.327909999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>987.212000</v>
+        <v>987.21199999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.002800</v>
+        <v>-91.002799999999993</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>76791.251022</v>
+        <v>76791.251021999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.330903</v>
+        <v>21.330902999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.174000</v>
+        <v>997.17399999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.306000</v>
+        <v>-108.306</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>76802.340575</v>
+        <v>76802.340574999995</v>
       </c>
       <c r="AZ22" s="1">
         <v>21.333983</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.500000</v>
+        <v>1005.5</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.692000</v>
+        <v>-123.69199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>76812.623137</v>
+        <v>76812.623137000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>21.336840</v>
+        <v>21.336839999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1044.330000</v>
+        <v>1044.33</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.328000</v>
+        <v>-194.328</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>76824.034111</v>
+        <v>76824.034111000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>21.340009</v>
+        <v>21.340008999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL22" s="1">
-        <v>-308.406000</v>
+        <v>-308.40600000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>76834.648484</v>
+        <v>76834.648484000005</v>
       </c>
       <c r="BO22" s="1">
-        <v>21.342958</v>
+        <v>21.342957999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-487.300000</v>
+        <v>-487.3</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>76845.265847</v>
+        <v>76845.265847000002</v>
       </c>
       <c r="BT22" s="1">
         <v>21.345907</v>
       </c>
       <c r="BU22" s="1">
-        <v>1339.120000</v>
+        <v>1339.12</v>
       </c>
       <c r="BV22" s="1">
-        <v>-682.418000</v>
+        <v>-682.41800000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>76856.097645</v>
+        <v>76856.097645000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.348916</v>
+        <v>21.348915999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1473.470000</v>
+        <v>1473.47</v>
       </c>
       <c r="CA22" s="1">
-        <v>-890.148000</v>
+        <v>-890.14800000000002</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>76869.021760</v>
+        <v>76869.021760000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>21.352506</v>
+        <v>21.352506000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>1822.100000</v>
+        <v>1822.1</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1381.820000</v>
+        <v>-1381.82</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>76697.051322</v>
+        <v>76697.051321999999</v>
       </c>
       <c r="B23" s="1">
-        <v>21.304736</v>
+        <v>21.304735999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>902.669000</v>
+        <v>902.66899999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.407000</v>
+        <v>-198.40700000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>76707.438541</v>
+        <v>76707.438540999996</v>
       </c>
       <c r="G23" s="1">
-        <v>21.307622</v>
+        <v>21.307621999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>921.059000</v>
+        <v>921.05899999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.936000</v>
+        <v>-168.93600000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>76717.945295</v>
+        <v>76717.945294999998</v>
       </c>
       <c r="L23" s="1">
-        <v>21.310540</v>
+        <v>21.31054</v>
       </c>
       <c r="M23" s="1">
-        <v>944.869000</v>
+        <v>944.86900000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.502000</v>
+        <v>-120.502</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>76728.483793</v>
+        <v>76728.483793000007</v>
       </c>
       <c r="Q23" s="1">
         <v>21.313468</v>
       </c>
       <c r="R23" s="1">
-        <v>952.153000</v>
+        <v>952.15300000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.368000</v>
+        <v>-104.36799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>76738.951364</v>
+        <v>76738.951363999993</v>
       </c>
       <c r="V23" s="1">
-        <v>21.316375</v>
+        <v>21.316375000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>959.104000</v>
+        <v>959.10400000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.229900</v>
+        <v>-89.229900000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>76749.518662</v>
+        <v>76749.518662000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>21.319311</v>
+        <v>21.319310999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.653000</v>
+        <v>966.65300000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.638600</v>
+        <v>-77.638599999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>76760.087383</v>
+        <v>76760.087383000006</v>
       </c>
       <c r="AF23" s="1">
         <v>21.322246</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.586000</v>
+        <v>971.58600000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.297800</v>
+        <v>-75.297799999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>76770.202300</v>
+        <v>76770.202300000004</v>
       </c>
       <c r="AK23" s="1">
         <v>21.325056</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.995000</v>
+        <v>978.995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.724600</v>
+        <v>-79.724599999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>76780.889100</v>
+        <v>76780.8891</v>
       </c>
       <c r="AP23" s="1">
         <v>21.328025</v>
       </c>
       <c r="AQ23" s="1">
-        <v>987.237000</v>
+        <v>987.23699999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.989500</v>
+        <v>-90.989500000000007</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>76791.703428</v>
+        <v>76791.703427999993</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.331029</v>
+        <v>21.331029000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.168000</v>
+        <v>997.16800000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.291000</v>
+        <v>-108.291</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>76802.727951</v>
+        <v>76802.727950999993</v>
       </c>
       <c r="AZ23" s="1">
-        <v>21.334091</v>
+        <v>21.334091000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.510000</v>
+        <v>1005.51</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.701000</v>
+        <v>-123.70099999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>76812.985714</v>
+        <v>76812.985713999995</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.336940</v>
+        <v>21.336939999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1044.350000</v>
+        <v>1044.3499999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.309000</v>
+        <v>-194.309</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>76824.409570</v>
+        <v>76824.409570000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>21.340114</v>
       </c>
       <c r="BK23" s="1">
-        <v>1111.030000</v>
+        <v>1111.03</v>
       </c>
       <c r="BL23" s="1">
-        <v>-308.387000</v>
+        <v>-308.387</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>76835.070084</v>
+        <v>76835.070084000006</v>
       </c>
       <c r="BO23" s="1">
-        <v>21.343075</v>
+        <v>21.343074999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-487.257000</v>
+        <v>-487.25700000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>76845.678551</v>
+        <v>76845.678551000005</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.346022</v>
+        <v>21.346022000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1339.200000</v>
+        <v>1339.2</v>
       </c>
       <c r="BV23" s="1">
-        <v>-682.400000</v>
+        <v>-682.4</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>76856.509656</v>
+        <v>76856.509655999995</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.349030</v>
+        <v>21.349029999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1473.580000</v>
+        <v>1473.58</v>
       </c>
       <c r="CA23" s="1">
-        <v>-890.042000</v>
+        <v>-890.04200000000003</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>76869.538566</v>
+        <v>76869.538566000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.352650</v>
+        <v>21.352650000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1821.750000</v>
+        <v>1821.75</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1381.800000</v>
+        <v>-1381.8</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>76697.735305</v>
+        <v>76697.735304999995</v>
       </c>
       <c r="B24" s="1">
-        <v>21.304926</v>
+        <v>21.304925999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>902.705000</v>
+        <v>902.70500000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.408000</v>
+        <v>-198.40799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>76708.130492</v>
+        <v>76708.130491999997</v>
       </c>
       <c r="G24" s="1">
         <v>21.307814</v>
       </c>
       <c r="H24" s="1">
-        <v>920.513000</v>
+        <v>920.51300000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.864000</v>
+        <v>-168.864</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>76718.287536</v>
+        <v>76718.287536000003</v>
       </c>
       <c r="L24" s="1">
-        <v>21.310635</v>
+        <v>21.310635000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>944.789000</v>
+        <v>944.78899999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.590000</v>
+        <v>-120.59</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>76728.834465</v>
+        <v>76728.834465000007</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.313565</v>
+        <v>21.313565000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>952.127000</v>
+        <v>952.12699999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.392000</v>
+        <v>-104.392</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>76739.296611</v>
+        <v>76739.296610999998</v>
       </c>
       <c r="V24" s="1">
         <v>21.316471</v>
       </c>
       <c r="W24" s="1">
-        <v>959.181000</v>
+        <v>959.18100000000004</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.320200</v>
+        <v>-89.3202</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>76750.178343</v>
+        <v>76750.178343000007</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.319494</v>
+        <v>21.319493999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.580000</v>
+        <v>966.58</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.635300</v>
+        <v>-77.635300000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>76760.524855</v>
+        <v>76760.524854999996</v>
       </c>
       <c r="AF24" s="1">
-        <v>21.322368</v>
+        <v>21.322368000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.582000</v>
+        <v>971.58199999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.232700</v>
+        <v>-75.232699999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>76770.576809</v>
+        <v>76770.576809000006</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.325160</v>
+        <v>21.32516</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.000000</v>
+        <v>979</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.691700</v>
+        <v>-79.691699999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>76781.268043</v>
+        <v>76781.268043000004</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.328130</v>
+        <v>21.328130000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>987.241000</v>
+        <v>987.24099999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.005200</v>
+        <v>-91.005200000000002</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>76792.069421</v>
+        <v>76792.069420999993</v>
       </c>
       <c r="AU24" s="1">
-        <v>21.331130</v>
+        <v>21.331130000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>997.169000</v>
+        <v>997.16899999999998</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.297000</v>
+        <v>-108.297</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>76803.085823</v>
+        <v>76803.085823000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.334191</v>
+        <v>21.334191000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.500000</v>
+        <v>1005.5</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.688000</v>
+        <v>-123.688</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>76813.424214</v>
+        <v>76813.424213999999</v>
       </c>
       <c r="BE24" s="1">
         <v>21.337062</v>
       </c>
       <c r="BF24" s="1">
-        <v>1044.330000</v>
+        <v>1044.33</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.337000</v>
+        <v>-194.33699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>76824.837121</v>
+        <v>76824.837121000004</v>
       </c>
       <c r="BJ24" s="1">
-        <v>21.340233</v>
+        <v>21.340233000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL24" s="1">
-        <v>-308.408000</v>
+        <v>-308.40800000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>76835.465412</v>
+        <v>76835.465412000005</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.343185</v>
+        <v>21.343184999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1218.750000</v>
+        <v>1218.75</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-487.296000</v>
+        <v>-487.29599999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>76846.094165</v>
+        <v>76846.094165000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>21.346137</v>
+        <v>21.346136999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1339.260000</v>
+        <v>1339.26</v>
       </c>
       <c r="BV24" s="1">
-        <v>-682.383000</v>
+        <v>-682.38300000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>76856.955063</v>
+        <v>76856.955063000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.349154</v>
+        <v>21.349153999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1473.500000</v>
+        <v>1473.5</v>
       </c>
       <c r="CA24" s="1">
-        <v>-890.160000</v>
+        <v>-890.16</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>76870.094582</v>
+        <v>76870.094582000005</v>
       </c>
       <c r="CD24" s="1">
-        <v>21.352804</v>
+        <v>21.352803999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1821.170000</v>
+        <v>1821.17</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1381.150000</v>
+        <v>-1381.15</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>76698.082511</v>
+        <v>76698.082511000001</v>
       </c>
       <c r="B25" s="1">
-        <v>21.305023</v>
+        <v>21.305022999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>902.754000</v>
+        <v>902.75400000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.614000</v>
+        <v>-198.614</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>76708.473723</v>
+        <v>76708.473723000003</v>
       </c>
       <c r="G25" s="1">
-        <v>21.307909</v>
+        <v>21.307908999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>920.626000</v>
+        <v>920.62599999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.827000</v>
+        <v>-168.827</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>76718.640687</v>
+        <v>76718.640687000006</v>
       </c>
       <c r="L25" s="1">
         <v>21.310734</v>
       </c>
       <c r="M25" s="1">
-        <v>945.039000</v>
+        <v>945.03899999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.539000</v>
+        <v>-120.539</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>76729.501120</v>
+        <v>76729.501120000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.313750</v>
+        <v>21.313749999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>952.118000</v>
+        <v>952.11800000000005</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.378000</v>
+        <v>-104.378</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>76739.960226</v>
+        <v>76739.960225999996</v>
       </c>
       <c r="V25" s="1">
-        <v>21.316656</v>
+        <v>21.316655999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>959.136000</v>
+        <v>959.13599999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.313300</v>
+        <v>-89.313299999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>76750.566187</v>
+        <v>76750.566187000004</v>
       </c>
       <c r="AA25" s="1">
         <v>21.319602</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.607000</v>
+        <v>966.60699999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.635700</v>
+        <v>-77.6357</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>76760.669688</v>
+        <v>76760.669687999994</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.322408</v>
+        <v>21.322407999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.562000</v>
+        <v>971.56200000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.284000</v>
+        <v>-75.284000000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>76770.926953</v>
+        <v>76770.926953000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.325257</v>
+        <v>21.325257000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.023000</v>
+        <v>979.02300000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.716800</v>
+        <v>-79.716800000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>76781.628634</v>
+        <v>76781.628633999993</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.328230</v>
+        <v>21.328230000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>987.255000</v>
+        <v>987.255</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.000100</v>
+        <v>-91.000100000000003</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>76792.432988</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.331231</v>
+        <v>21.331230999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.184000</v>
+        <v>997.18399999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.302000</v>
+        <v>-108.30200000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>76803.511631</v>
+        <v>76803.511631000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>21.334309</v>
+        <v>21.334309000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.500000</v>
+        <v>1005.5</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.695000</v>
+        <v>-123.69499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>76813.708385</v>
+        <v>76813.708385000005</v>
       </c>
       <c r="BE25" s="1">
-        <v>21.337141</v>
+        <v>21.337140999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1044.330000</v>
+        <v>1044.33</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.323000</v>
+        <v>-194.32300000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>76825.157537</v>
+        <v>76825.157537000006</v>
       </c>
       <c r="BJ25" s="1">
         <v>21.340322</v>
       </c>
       <c r="BK25" s="1">
-        <v>1111.020000</v>
+        <v>1111.02</v>
       </c>
       <c r="BL25" s="1">
-        <v>-308.412000</v>
+        <v>-308.41199999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>76835.882531</v>
+        <v>76835.882530999996</v>
       </c>
       <c r="BO25" s="1">
         <v>21.343301</v>
       </c>
       <c r="BP25" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-487.295000</v>
+        <v>-487.29500000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>76846.524197</v>
+        <v>76846.524197000006</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.346257</v>
+        <v>21.346257000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1339.340000</v>
+        <v>1339.34</v>
       </c>
       <c r="BV25" s="1">
-        <v>-682.366000</v>
+        <v>-682.36599999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>76857.387576</v>
+        <v>76857.387575999994</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.349274</v>
+        <v>21.349274000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1473.530000</v>
+        <v>1473.53</v>
       </c>
       <c r="CA25" s="1">
-        <v>-890.180000</v>
+        <v>-890.18</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>76870.621829</v>
+        <v>76870.621828999996</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.352951</v>
+        <v>21.352951000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1822.270000</v>
+        <v>1822.27</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1382.020000</v>
+        <v>-1382.02</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>76698.420281</v>
+        <v>76698.420280999999</v>
       </c>
       <c r="B26" s="1">
-        <v>21.305117</v>
+        <v>21.305116999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>902.657000</v>
+        <v>902.65700000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.482000</v>
+        <v>-198.482</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>76708.833323</v>
+        <v>76708.833322999999</v>
       </c>
       <c r="G26" s="1">
-        <v>21.308009</v>
+        <v>21.308008999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>920.656000</v>
+        <v>920.65599999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.545000</v>
+        <v>-168.54499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>76719.296434</v>
+        <v>76719.296434000004</v>
       </c>
       <c r="L26" s="1">
-        <v>21.310916</v>
+        <v>21.310915999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>944.944000</v>
+        <v>944.94399999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.695000</v>
+        <v>-120.69499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>76729.878543</v>
+        <v>76729.878542999999</v>
       </c>
       <c r="Q26" s="1">
         <v>21.313855</v>
       </c>
       <c r="R26" s="1">
-        <v>952.072000</v>
+        <v>952.072</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.337000</v>
+        <v>-104.337</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>76740.321345</v>
+        <v>76740.321345000004</v>
       </c>
       <c r="V26" s="1">
-        <v>21.316756</v>
+        <v>21.316756000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>959.142000</v>
+        <v>959.14200000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.283100</v>
+        <v>-89.283100000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>76750.916851</v>
+        <v>76750.916851000002</v>
       </c>
       <c r="AA26" s="1">
         <v>21.319699</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.664000</v>
+        <v>966.66399999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.609400</v>
+        <v>-77.609399999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>76761.010967</v>
+        <v>76761.010966999995</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.322503</v>
+        <v>21.322503000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.564000</v>
+        <v>971.56399999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.296100</v>
+        <v>-75.296099999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>76771.274152</v>
+        <v>76771.274151999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.325354</v>
+        <v>21.325354000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.026000</v>
+        <v>979.02599999999995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.702000</v>
+        <v>-79.701999999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>76782.051722</v>
+        <v>76782.051722000004</v>
       </c>
       <c r="AP26" s="1">
-        <v>21.328348</v>
+        <v>21.328347999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>987.247000</v>
+        <v>987.24699999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.989100</v>
+        <v>-90.989099999999993</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>76792.873435</v>
+        <v>76792.873435000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.331354</v>
+        <v>21.331354000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>997.192000</v>
+        <v>997.19200000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.302000</v>
+        <v>-108.30200000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>76803.803278</v>
+        <v>76803.803278000007</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21.334390</v>
+        <v>21.334389999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.530000</v>
+        <v>1005.53</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.697000</v>
+        <v>-123.697</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>76814.069007</v>
+        <v>76814.069006999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>21.337241</v>
+        <v>21.337240999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1044.340000</v>
+        <v>1044.3399999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.325000</v>
+        <v>-194.32499999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>76825.542930</v>
+        <v>76825.542929999996</v>
       </c>
       <c r="BJ26" s="1">
         <v>21.340429</v>
       </c>
       <c r="BK26" s="1">
-        <v>1111.030000</v>
+        <v>1111.03</v>
       </c>
       <c r="BL26" s="1">
-        <v>-308.420000</v>
+        <v>-308.42</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>76836.280818</v>
+        <v>76836.280817999999</v>
       </c>
       <c r="BO26" s="1">
         <v>21.343411</v>
       </c>
       <c r="BP26" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-487.267000</v>
+        <v>-487.267</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>76846.957702</v>
@@ -6859,45 +7275,46 @@
         <v>21.346377</v>
       </c>
       <c r="BU26" s="1">
-        <v>1339.410000</v>
+        <v>1339.41</v>
       </c>
       <c r="BV26" s="1">
-        <v>-682.386000</v>
+        <v>-682.38599999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>76857.827062</v>
+        <v>76857.827061999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.349396</v>
+        <v>21.349395999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1473.580000</v>
+        <v>1473.58</v>
       </c>
       <c r="CA26" s="1">
-        <v>-890.137000</v>
+        <v>-890.13699999999994</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>76871.143620</v>
+        <v>76871.143620000003</v>
       </c>
       <c r="CD26" s="1">
         <v>21.353095</v>
       </c>
       <c r="CE26" s="1">
-        <v>1821.630000</v>
+        <v>1821.63</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1381.720000</v>
+        <v>-1381.72</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>